--- a/bin/TestData/Data.xlsx
+++ b/bin/TestData/Data.xlsx
@@ -4,35 +4,120 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="ObjectR" sheetId="1" r:id="rId1"/>
+    <sheet name="TestD" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
-  <si>
-    <t>Unique Key</t>
-  </si>
-  <si>
-    <t>Values</t>
-  </si>
-  <si>
-    <t>Test</t>
-  </si>
-  <si>
-    <t>Data from excel</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="32">
+  <si>
+    <t>Locator_Type</t>
+  </si>
+  <si>
+    <t>Locator_Name</t>
+  </si>
+  <si>
+    <t>Locator_Value</t>
+  </si>
+  <si>
+    <t>XPATH</t>
+  </si>
+  <si>
+    <t>Data_Type</t>
+  </si>
+  <si>
+    <t>Data_Value</t>
+  </si>
+  <si>
+    <t>Flight_From</t>
+  </si>
+  <si>
+    <t>DEL</t>
+  </si>
+  <si>
+    <t>Flight_to</t>
+  </si>
+  <si>
+    <t>MUM</t>
+  </si>
+  <si>
+    <t>btn_cookies</t>
+  </si>
+  <si>
+    <t>text_Shop</t>
+  </si>
+  <si>
+    <t>text_Mobiler</t>
+  </si>
+  <si>
+    <t>//div[@class='cookieDisclaimer']/button</t>
+  </si>
+  <si>
+    <t>//a[@class='cm-c-main-nav__link cm-c-main-nav__link--is-active']</t>
+  </si>
+  <si>
+    <t>//a[contains(text(),'Mobiler')]</t>
+  </si>
+  <si>
+    <t>text_Sony</t>
+  </si>
+  <si>
+    <t>//aside[@class='cm-c-filter-nav']//div[2]//div[1]//p[1]//a[1]</t>
+  </si>
+  <si>
+    <t>text_Nulstil</t>
+  </si>
+  <si>
+    <t>text_Samsung</t>
+  </si>
+  <si>
+    <t>lable_Apple</t>
+  </si>
+  <si>
+    <t>//*[contains(text(),'Sony')]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">//span[@class='cm-c-checkbox__label'][contains(text(),'Apple')] </t>
+  </si>
+  <si>
+    <t xml:space="preserve">//span[@class='cm-c-checkbox__label'][contains(text(),'Samsung')] </t>
+  </si>
+  <si>
+    <t>//section[@class='cm-c-category-grid']//div[1]//div[1]//div[1]//label[1]//span[1]</t>
+  </si>
+  <si>
+    <t>//section[@class='cm-c-category-grid']//div[2]//div[1]//div[1]//label[1]//span[1]</t>
+  </si>
+  <si>
+    <t>//a[@class='cm-c-btn cm-c-btn--compare']</t>
+  </si>
+  <si>
+    <t>Apple_comp1</t>
+  </si>
+  <si>
+    <t>Apple_comp2</t>
+  </si>
+  <si>
+    <t>btn_compare</t>
+  </si>
+  <si>
+    <t>//section[@class='cm-c-category-grid']//div[3]//div[1]//div[1]//label[1]//span[1]</t>
+  </si>
+  <si>
+    <t>Apple_comp3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -48,13 +133,24 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF303336"/>
+      <name val="Inherit"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -70,10 +166,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -379,45 +480,204 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="95.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11.7109375" style="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="14.28515625" style="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="16384" width="9.140625" style="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5">
+      <c r="A1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1"/>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
+      <c r="C2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2"/>
+      <c r="E2" s="2"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3"/>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>26</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/bin/TestData/Data.xlsx
+++ b/bin/TestData/Data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="ObjectR" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="36">
   <si>
     <t>Locator_Type</t>
   </si>
@@ -111,13 +111,25 @@
   </si>
   <si>
     <t>Apple_comp3</t>
+  </si>
+  <si>
+    <t>//input[@title='Search']</t>
+  </si>
+  <si>
+    <t>text_search</t>
+  </si>
+  <si>
+    <t>btn_search</t>
+  </si>
+  <si>
+    <t>//div[@class='FPdoLc VlcLAe']//input[@value='Google Search']</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -137,6 +149,14 @@
       <sz val="10"/>
       <color rgb="FF303336"/>
       <name val="Inherit"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -166,7 +186,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
@@ -175,6 +195,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -480,10 +501,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -633,6 +654,28 @@
         <v>26</v>
       </c>
     </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -643,8 +686,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
